--- a/backend/src/main/resources/excel.model/excel生成sql模板.xlsx
+++ b/backend/src/main/resources/excel.model/excel生成sql模板.xlsx
@@ -7,14 +7,18 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200"/>
   </bookViews>
   <sheets>
-    <sheet name="table_name-表名" sheetId="6" r:id="rId1"/>
+    <sheet name="bus_tour-公交车运行情况" sheetId="10" r:id="rId1"/>
+    <sheet name="bus_position-公交车位置" sheetId="6" r:id="rId2"/>
+    <sheet name="bus_info-公交车信息" sheetId="7" r:id="rId3"/>
+    <sheet name="stop_info-站台信息" sheetId="8" r:id="rId4"/>
+    <sheet name="bus_stop-公交站台信息" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="104">
   <si>
     <t>是否主键</t>
   </si>
@@ -45,6 +49,384 @@
   </si>
   <si>
     <t>唯一约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交车号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>经度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longitude_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西经还是东经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南纬还是北纬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海拔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>velocity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度(km/h)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交车号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上行开始站台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上行结束站台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>down_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下行开始站台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heading_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驶向(1-上行,2-下行)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stop_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站台名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交车号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stop_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站台名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该表每日清空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus_schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交班次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否结束了(1-未结束,2-已结束)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站台顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heading_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驶向(1-上行,2-下行)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tour_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tour_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下行结束站台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>down_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>now_stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在的站台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next_stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一个站台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -52,7 +434,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +460,12 @@
       <sz val="11"/>
       <name val="Arial Black"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -129,11 +517,76 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFEBEBEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFEBEBEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFEBEBEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFEBEBEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFEBEBEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFEBEBEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFEBEBEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFEBEBEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -483,10 +936,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="13.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="6"/>
+    <col min="6" max="6" width="32.25" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:F1">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>1&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>1&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -495,7 +1121,8 @@
     <col min="2" max="2" width="25" style="3" customWidth="1"/>
     <col min="3" max="3" width="30" style="3" customWidth="1"/>
     <col min="4" max="4" width="15" style="3" customWidth="1"/>
-    <col min="5" max="6" width="15" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="44.25" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
@@ -528,6 +1155,550 @@
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:F1">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>1&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>1&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="15" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:F1">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>1&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>1&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="6"/>
+    <col min="8" max="8" width="22.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:F1">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>1&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>1&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -543,6 +1714,5 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>
 </worksheet>
 </file>
--- a/backend/src/main/resources/excel.model/excel生成sql模板.xlsx
+++ b/backend/src/main/resources/excel.model/excel生成sql模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="bus_tour-公交车运行情况" sheetId="10" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="108">
   <si>
     <t>是否主键</t>
   </si>
@@ -250,10 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>end_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,10 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int(3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,15 +410,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>next_stop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>下一个站台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequence</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -938,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -987,10 +1003,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>12</v>
@@ -1021,73 +1037,73 @@
         <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1128,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1177,18 +1193,18 @@
         <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -1290,7 +1306,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1361,7 +1377,7 @@
         <v>49</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -1372,7 +1388,7 @@
         <v>52</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1394,15 +1410,15 @@
         <v>56</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>20</v>
@@ -1416,18 +1432,18 @@
         <v>58</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1452,7 +1468,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1500,33 +1516,33 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -1586,6 +1602,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1593,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1639,66 +1656,66 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/main/resources/excel.model/excel生成sql模板.xlsx
+++ b/backend/src/main/resources/excel.model/excel生成sql模板.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="106">
   <si>
     <t>是否主键</t>
   </si>
@@ -242,26 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>start_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>heading_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -443,6 +423,18 @@
   </si>
   <si>
     <t>sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1003,10 +995,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>12</v>
@@ -1042,68 +1034,68 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1193,18 +1185,18 @@
         <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -1303,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1388,7 +1380,7 @@
         <v>52</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1410,15 +1402,15 @@
         <v>56</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>20</v>
@@ -1426,24 +1418,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="6" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1468,7 +1449,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1516,33 +1497,33 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -1611,7 +1592,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1656,30 +1637,30 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>21</v>
@@ -1687,35 +1668,35 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/main/resources/excel.model/excel生成sql模板.xlsx
+++ b/backend/src/main/resources/excel.model/excel生成sql模板.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5722E1C8-2806-4F51-99B5-C160D5A3D8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bus_tour-公交车运行情况" sheetId="10" r:id="rId1"/>
@@ -354,10 +355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tour_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -435,13 +432,17 @@
   </si>
   <si>
     <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -943,11 +944,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1045,13 +1046,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -1067,24 +1068,24 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1116,7 +1117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1190,13 +1191,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -1294,7 +1295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1380,7 +1381,7 @@
         <v>52</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1402,15 +1403,15 @@
         <v>56</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>20</v>
@@ -1418,13 +1419,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1445,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1523,7 +1524,7 @@
         <v>67</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -1588,10 +1589,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -1668,7 +1669,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>78</v>
@@ -1685,7 +1686,7 @@
         <v>72</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">

--- a/backend/src/main/resources/excel.model/excel生成sql模板.xlsx
+++ b/backend/src/main/resources/excel.model/excel生成sql模板.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5722E1C8-2806-4F51-99B5-C160D5A3D8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB222E80-871B-4886-B1FD-265DF8D1DBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bus_tour-公交车运行情况" sheetId="10" r:id="rId1"/>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -436,6 +432,10 @@
   </si>
   <si>
     <t>int(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(7,2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -947,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -996,10 +996,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>12</v>
@@ -1019,7 +1019,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -1030,73 +1030,73 @@
         <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1120,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1186,95 +1186,95 @@
         <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1344,88 +1344,88 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1498,77 +1498,77 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1638,66 +1638,66 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
